--- a/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type2/pd_results_W20_H100_B32.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type2/pd_results_W20_H100_B32.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5484848484848485</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.3333333333333333</v>
-      </c>
+        <v>0.5495495495495496</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.9890710382513661</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5465465465465466</v>
+        <v>0.5495495495495496</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7056530214424951</v>
+        <v>0.7093023255813954</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5285285285285285</v>
+        <v>0.4774774774774775</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.06169658930179449</v>
+        <v>0.1101013661290278</v>
       </c>
       <c r="J2" t="n">
-        <v>793.6011934250458</v>
+        <v>1378.353265181468</v>
       </c>
       <c r="K2" t="n">
-        <v>886368.4156668213</v>
+        <v>2231643.777822894</v>
       </c>
       <c r="L2" t="n">
-        <v>941.4714099041039</v>
+        <v>1493.868728444</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8351994068890394</v>
+        <v>0.5850752218862435</v>
       </c>
     </row>
   </sheetData>
